--- a/Moose Development/Maths/Task Templates.xlsx
+++ b/Moose Development/Maths/Task Templates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Task Template Name</t>
   </si>
@@ -47,24 +47,12 @@
     <t>Start</t>
   </si>
   <si>
-    <t>Assign</t>
-  </si>
-  <si>
-    <t>PRC_ASSIGN</t>
-  </si>
-  <si>
     <t>Assigned</t>
   </si>
   <si>
     <t>Assign PL to task. Assignment can be done through PRC_ASSIGN variants. (Direct assignment, Menu Acceptance, …)</t>
   </si>
   <si>
-    <t>Brief</t>
-  </si>
-  <si>
-    <t>Briefed</t>
-  </si>
-  <si>
     <t>UnAssigned</t>
   </si>
   <si>
@@ -77,12 +65,6 @@
     <t>Sub FSM</t>
   </si>
   <si>
-    <t>PL is briefed with task overview instructions.</t>
-  </si>
-  <si>
-    <t>PRC_BRIEFING</t>
-  </si>
-  <si>
     <t>RouteToRendezVous</t>
   </si>
   <si>
@@ -104,9 +86,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>PRC_ACCOUNT</t>
-  </si>
-  <si>
     <t>The PL rejected the task assignment, task MAY come to rejected, if the last PL rejected the task.</t>
   </si>
   <si>
@@ -116,12 +95,6 @@
     <t>RouteToTarget</t>
   </si>
   <si>
-    <t>PRC_ROUTE_POINT</t>
-  </si>
-  <si>
-    <t>PRC_ROUTE_ZONE</t>
-  </si>
-  <si>
     <t>Arrived</t>
   </si>
   <si>
@@ -182,29 +155,13 @@
     <t>The PL is commanded to engage the targets.</t>
   </si>
   <si>
-    <t>The PL is commanded to hold position.</t>
-  </si>
-  <si>
-    <t>A message is sent at defined time intervals to hold the position until further briefing. The message contains the coordinates how far the player is from the hold position.</t>
-  </si>
-  <si>
-    <t>HoldAtRendezVous</t>
+    <t>The PL is commanded to hold position. A message is sent at defined time intervals to hold the position until further briefing. The message contains the coordinates how far the player is from the hold position.</t>
   </si>
   <si>
     <t>Assignment Process Overview</t>
   </si>
   <si>
-    <t>TASK_SEAD:SetBriefing( Text )</t>
-  </si>
-  <si>
     <t>PL needs to RTB.</t>
-  </si>
-  <si>
-    <t>Assigned -&gt; Brief
-Rejected -&gt; Reject</t>
-  </si>
-  <si>
-    <t>Briefed -&gt; RouteToRendezVous</t>
   </si>
   <si>
     <t>If a Rendez-Vous point is Set, trigger event RouteToRendezVousPoint
@@ -250,6 +207,28 @@
   <si>
     <t>TASK_SEAD:SetRendezVousPoint( RendezVousPointVec2, RendezVousRange )
 TASK_SEAD:SetRendezVousZone( RendezVousZone )</t>
+  </si>
+  <si>
+    <t>ACT_ROUTE_POINT</t>
+  </si>
+  <si>
+    <t>ACT_ROUTE_ZONE</t>
+  </si>
+  <si>
+    <t>ACT_ACCOUNT</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>ACT_ASSIGN_ACCEPT</t>
+  </si>
+  <si>
+    <t>Assigned -&gt; RouteToRendezVous
+Rejected -&gt; Reject</t>
+  </si>
+  <si>
+    <t>Hold</t>
   </si>
 </sst>
 </file>
@@ -361,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A4:G23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A4:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A4:G21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A4:G21"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Task Template Name" dataDxfId="6"/>
     <tableColumn id="4" name="From State" dataDxfId="5"/>
@@ -673,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +663,7 @@
     <col min="1" max="1" width="35.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="66" style="1" customWidth="1"/>
     <col min="7" max="7" width="61.85546875" style="1" customWidth="1"/>
@@ -692,7 +671,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -710,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -719,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,300 +706,266 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
